--- a/advisors/excel/register_result.xlsx
+++ b/advisors/excel/register_result.xlsx
@@ -162,6 +162,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -171,18 +180,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -195,20 +193,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -216,6 +210,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,29 +495,29 @@
   <dimension ref="A2:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="29.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -530,468 +528,468 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
